--- a/teaching/traditional_assets/database/data/south_korea/south_korea_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/south_korea/south_korea_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ31"/>
+  <dimension ref="A1:AQ37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.11195</v>
+        <v>0.118</v>
       </c>
       <c r="E2">
-        <v>0.0239</v>
+        <v>0.09495000000000001</v>
       </c>
       <c r="G2">
-        <v>0.5221246856907644</v>
+        <v>0.1013773313754773</v>
       </c>
       <c r="H2">
-        <v>0.5212686311180311</v>
+        <v>0.1018173795969393</v>
       </c>
       <c r="I2">
-        <v>0.6596690916574945</v>
+        <v>0.1494208183097611</v>
       </c>
       <c r="J2">
-        <v>0.5811463515242461</v>
+        <v>0.1283238225681127</v>
       </c>
       <c r="K2">
-        <v>68.306</v>
+        <v>201.723</v>
       </c>
       <c r="L2">
-        <v>0.020374098831053</v>
+        <v>0.03945237661243447</v>
       </c>
       <c r="M2">
-        <v>47.8397</v>
+        <v>28.31805</v>
       </c>
       <c r="N2">
-        <v>0.02918567550254705</v>
+        <v>0.008523807803794439</v>
       </c>
       <c r="O2">
-        <v>0.7003733200597313</v>
+        <v>0.1403808688151574</v>
       </c>
       <c r="P2">
-        <v>14.3397</v>
+        <v>20.84505</v>
       </c>
       <c r="Q2">
-        <v>0.008748253668059666</v>
+        <v>0.006274415076620222</v>
       </c>
       <c r="R2">
-        <v>0.2099332415893187</v>
+        <v>0.1033350188129266</v>
       </c>
       <c r="S2">
-        <v>33.5</v>
+        <v>7.472999999999999</v>
       </c>
       <c r="T2">
-        <v>0.7002552273530144</v>
+        <v>0.2638952894002235</v>
       </c>
       <c r="U2">
-        <v>827.529</v>
+        <v>1013.125</v>
       </c>
       <c r="V2">
-        <v>0.5048525150230303</v>
+        <v>0.3049532994404361</v>
       </c>
       <c r="W2">
-        <v>0.008136482939632546</v>
+        <v>0.008104196816208394</v>
       </c>
       <c r="X2">
-        <v>0.05293629279421361</v>
+        <v>0.03936682758288301</v>
       </c>
       <c r="Y2">
-        <v>-0.04479980985458106</v>
+        <v>-0.03126263076667462</v>
       </c>
       <c r="Z2">
-        <v>0.3903574005933971</v>
+        <v>0.4287002727023101</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05063432009313282</v>
+        <v>0.03802957066706765</v>
       </c>
       <c r="AC2">
-        <v>-0.05063432009313282</v>
+        <v>-0.03801953040785618</v>
       </c>
       <c r="AD2">
-        <v>11968.954</v>
+        <v>13733.085</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>11968.954</v>
+        <v>13733.085</v>
       </c>
       <c r="AG2">
-        <v>11141.425</v>
+        <v>12719.96</v>
       </c>
       <c r="AH2">
-        <v>0.8795460410943362</v>
+        <v>0.8052085229736302</v>
       </c>
       <c r="AI2">
-        <v>0.7670904683147286</v>
+        <v>0.7798283343445732</v>
       </c>
       <c r="AJ2">
-        <v>0.8717467719566608</v>
+        <v>0.7929067041345352</v>
       </c>
       <c r="AK2">
-        <v>0.7540459645257952</v>
+        <v>0.7663886892241917</v>
       </c>
       <c r="AL2">
-        <v>1842.4</v>
+        <v>15.619</v>
       </c>
       <c r="AM2">
-        <v>1837.529</v>
+        <v>9.241</v>
       </c>
       <c r="AN2">
-        <v>5.38462929638294</v>
+        <v>17.43662392077196</v>
       </c>
       <c r="AO2">
-        <v>1.200390794615719</v>
+        <v>48.91478327677828</v>
       </c>
       <c r="AP2">
-        <v>5.012338042109051</v>
+        <v>16.15027932960894</v>
       </c>
       <c r="AQ2">
-        <v>1.20357284157148</v>
+        <v>82.67503516935398</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +725,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.291</v>
+        <v>0.345</v>
       </c>
       <c r="E3">
-        <v>0.0868</v>
+        <v>0.0289</v>
       </c>
       <c r="G3">
-        <v>0.606349371297932</v>
+        <v>0.1072683259884551</v>
       </c>
       <c r="H3">
-        <v>0.6053552253282066</v>
+        <v>0.1077110876626735</v>
       </c>
       <c r="I3">
-        <v>0.7660812636391977</v>
+        <v>0.1580700556555562</v>
       </c>
       <c r="J3">
-        <v>0.511830502051175</v>
+        <v>0.1107132950790746</v>
       </c>
       <c r="K3">
-        <v>24.9</v>
+        <v>93.8</v>
       </c>
       <c r="L3">
-        <v>0.008625168866257924</v>
+        <v>0.01940703039331305</v>
       </c>
       <c r="M3">
-        <v>38.5939</v>
+        <v>5.9365</v>
       </c>
       <c r="N3">
-        <v>0.1403414545454545</v>
+        <v>0.01317758046614872</v>
       </c>
       <c r="O3">
-        <v>1.549955823293173</v>
+        <v>0.06328891257995735</v>
       </c>
       <c r="P3">
-        <v>5.0939</v>
+        <v>5.9365</v>
       </c>
       <c r="Q3">
-        <v>0.01852327272727273</v>
+        <v>0.01317758046614872</v>
       </c>
       <c r="R3">
-        <v>0.204574297188755</v>
+        <v>0.06328891257995735</v>
       </c>
       <c r="S3">
-        <v>33.5</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.8680128206789156</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>416.5</v>
+        <v>835</v>
       </c>
       <c r="V3">
-        <v>1.514545454545455</v>
+        <v>1.853496115427303</v>
       </c>
       <c r="W3">
-        <v>0.05342201244368161</v>
+        <v>0.2281128404669261</v>
       </c>
       <c r="X3">
-        <v>0.9949434218427873</v>
+        <v>0.6850266985569717</v>
       </c>
       <c r="Y3">
-        <v>-0.9415214093991057</v>
+        <v>-0.4569138580900457</v>
       </c>
       <c r="Z3">
-        <v>0.4330263394732106</v>
+        <v>0.4401030758864344</v>
       </c>
       <c r="AA3">
-        <v>0.2216360887339559</v>
+        <v>0.04872526170582316</v>
       </c>
       <c r="AB3">
-        <v>0.04776566148361439</v>
+        <v>0.04388038745676003</v>
       </c>
       <c r="AC3">
-        <v>0.1738704272503415</v>
+        <v>0.00484487424906313</v>
       </c>
       <c r="AD3">
-        <v>11082</v>
+        <v>13597.6</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>11082</v>
+        <v>13597.6</v>
       </c>
       <c r="AG3">
-        <v>10665.5</v>
+        <v>12762.6</v>
       </c>
       <c r="AH3">
-        <v>0.975785858941622</v>
+        <v>0.9679316064094077</v>
       </c>
       <c r="AI3">
-        <v>0.8300439664147523</v>
+        <v>0.8343621525434129</v>
       </c>
       <c r="AJ3">
-        <v>0.9748640372926283</v>
+        <v>0.9659050487773497</v>
       </c>
       <c r="AK3">
-        <v>0.8245713048722032</v>
+        <v>0.8254171517268142</v>
       </c>
       <c r="AL3">
-        <v>1842.4</v>
+        <v>15.6</v>
       </c>
       <c r="AM3">
-        <v>1840.2</v>
+        <v>12.25</v>
       </c>
       <c r="AN3">
-        <v>4.985603743026813</v>
+        <v>17.26460132046724</v>
       </c>
       <c r="AO3">
-        <v>1.200390794615719</v>
+        <v>48.97435897435898</v>
       </c>
       <c r="AP3">
-        <v>4.798227460860176</v>
+        <v>16.20441848654139</v>
       </c>
       <c r="AQ3">
-        <v>1.201825888490381</v>
+        <v>62.36734693877551</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IBKS No.10 Special Purpose Acquisition Company (KOSDAQ:A299170)</t>
+          <t>Woori Technology Investment Co., Ltd. (KOSDAQ:A041190)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -858,23 +858,29 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D4">
+        <v>-0.271</v>
+      </c>
+      <c r="E4">
+        <v>0.479</v>
+      </c>
       <c r="G4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.022</v>
+        <v>18.2</v>
       </c>
       <c r="L4">
-        <v>-0.4313725490196079</v>
+        <v>27.45098039215686</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -898,64 +904,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.47</v>
+        <v>3.09</v>
       </c>
       <c r="V4">
-        <v>0.1919060052219321</v>
+        <v>0.009064241713112349</v>
       </c>
       <c r="W4">
-        <v>0.002933333333333333</v>
+        <v>0.331511839708561</v>
       </c>
       <c r="X4">
-        <v>0.05424423192469879</v>
+        <v>0.03788704609012515</v>
       </c>
       <c r="Y4">
-        <v>-0.05131089859136546</v>
+        <v>0.2936247936184359</v>
       </c>
       <c r="Z4">
-        <v>-0.00711297071129707</v>
+        <v>0.01571090047393365</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.05006685289583208</v>
+        <v>0.03788704609012515</v>
       </c>
       <c r="AC4">
-        <v>-0.05006685289583208</v>
+        <v>-0.03788704609012515</v>
       </c>
       <c r="AD4">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>-0.23</v>
+        <v>-3.09</v>
       </c>
       <c r="AH4">
-        <v>0.1393258426966292</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.1508515815085158</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.03095558546433378</v>
+        <v>-0.009147153725466978</v>
       </c>
       <c r="AK4">
-        <v>-0.03407407407407407</v>
+        <v>-0.04315039798910766</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>-0.139</v>
-      </c>
-      <c r="AQ4">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -966,7 +969,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hanwha Susung Special Purpose Acquisition CO., LTD. (KOSDAQ:A265920)</t>
+          <t>SV Investment Corporation (KOSDAQ:A289080)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -975,103 +978,103 @@
         </is>
       </c>
       <c r="G5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.068</v>
+        <v>0.313</v>
       </c>
       <c r="L5">
-        <v>-2.344827586206897</v>
+        <v>0.02484126984126984</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>1.3832</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>0.004568031704095112</v>
       </c>
       <c r="O5">
-        <v>-0</v>
+        <v>4.419169329073482</v>
       </c>
       <c r="P5">
-        <v>-0</v>
+        <v>1.3832</v>
       </c>
       <c r="Q5">
-        <v>-0</v>
+        <v>0.004568031704095112</v>
       </c>
       <c r="R5">
-        <v>-0</v>
+        <v>4.419169329073482</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
       <c r="U5">
-        <v>1.31</v>
+        <v>2.37</v>
       </c>
       <c r="V5">
-        <v>0.1664548919949174</v>
+        <v>0.007826948480845442</v>
       </c>
       <c r="W5">
-        <v>0.00891218872870249</v>
+        <v>0.006909492273730685</v>
       </c>
       <c r="X5">
-        <v>0.05360693494765441</v>
+        <v>0.03788704609012515</v>
       </c>
       <c r="Y5">
-        <v>-0.04469474621895192</v>
+        <v>-0.03097755381639447</v>
       </c>
       <c r="Z5">
-        <v>-0.003972602739726027</v>
+        <v>0.3247422680412371</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.05012359403340185</v>
+        <v>0.03788704609012515</v>
       </c>
       <c r="AC5">
-        <v>-0.05012359403340185</v>
+        <v>-0.03788704609012515</v>
       </c>
       <c r="AD5">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>-0.25</v>
+        <v>-2.37</v>
       </c>
       <c r="AH5">
-        <v>0.1187010078387458</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.1292682926829269</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-0.03280839895013123</v>
+        <v>-0.007888692873547916</v>
       </c>
       <c r="AK5">
-        <v>-0.0362844702467344</v>
+        <v>-0.05495015070716439</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>-0.129</v>
-      </c>
-      <c r="AQ5">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1082,7 +1085,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mirae Asset Daewoo Special Purpose Acquisition 1 Co., Ltd (KOSDAQ:A265480)</t>
+          <t>Atinum Investment Co., Ltd (KOSDAQ:A021080)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1090,23 +1093,29 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D6">
+        <v>-0.0103</v>
+      </c>
+      <c r="E6">
+        <v>-0.0591</v>
+      </c>
       <c r="G6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.04</v>
+        <v>8.07</v>
       </c>
       <c r="L6">
-        <v>-1.666666666666667</v>
+        <v>0.4035</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1130,61 +1139,61 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.46</v>
+        <v>22.7</v>
       </c>
       <c r="V6">
-        <v>0.1705607476635514</v>
+        <v>0.1982532751091703</v>
       </c>
       <c r="W6">
-        <v>0.005018820577164367</v>
+        <v>0.1266875981161695</v>
       </c>
       <c r="X6">
-        <v>0.05293629279421361</v>
+        <v>0.03788704609012515</v>
       </c>
       <c r="Y6">
-        <v>-0.04791747221704924</v>
+        <v>0.08880055202604438</v>
       </c>
       <c r="Z6">
-        <v>-0.003289924605894449</v>
+        <v>0.4132231404958677</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.05018631659405196</v>
+        <v>0.03788704609012515</v>
       </c>
       <c r="AC6">
-        <v>-0.05018631659405196</v>
+        <v>-0.03788704609012515</v>
       </c>
       <c r="AD6">
-        <v>0.908</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.908</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>-0.5519999999999999</v>
+        <v>-22.7</v>
       </c>
       <c r="AH6">
-        <v>0.09590198563582594</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.1090297790585975</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>-0.06893106893106891</v>
+        <v>-0.247276688453159</v>
       </c>
       <c r="AK6">
-        <v>-0.08037274315666859</v>
+        <v>-0.4642126789366054</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>-0.128</v>
+        <v>-0.286</v>
       </c>
       <c r="AQ6">
         <v>-0</v>
@@ -1198,7 +1207,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hana Financial tenth Special Purpose Acquisition Company (KOSDAQ:A270520)</t>
+          <t>Daesung Private Equity, Inc. (KOSDAQ:A027830)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1206,23 +1215,29 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D7">
+        <v>-0.0204</v>
+      </c>
+      <c r="E7">
+        <v>-0.0142</v>
+      </c>
       <c r="G7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.037</v>
+        <v>4.45</v>
       </c>
       <c r="L7">
-        <v>-2.3125</v>
+        <v>0.4476861167002013</v>
       </c>
       <c r="M7">
         <v>-0</v>
@@ -1246,61 +1261,61 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.11</v>
+        <v>10</v>
       </c>
       <c r="V7">
-        <v>0.1366995073891626</v>
+        <v>0.1398601398601399</v>
       </c>
       <c r="W7">
-        <v>0.004811443433029908</v>
+        <v>0.1109725685785536</v>
       </c>
       <c r="X7">
-        <v>0.0527765963247889</v>
+        <v>0.03788704609012515</v>
       </c>
       <c r="Y7">
-        <v>-0.04796515289175899</v>
+        <v>0.07308552248842846</v>
       </c>
       <c r="Z7">
-        <v>-0.002193884546825723</v>
+        <v>0.2855501292731973</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.05020173374485763</v>
+        <v>0.03788704609012515</v>
       </c>
       <c r="AC7">
-        <v>-0.05020173374485763</v>
+        <v>-0.03788704609012515</v>
       </c>
       <c r="AD7">
-        <v>0.806</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.806</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>-0.304</v>
+        <v>-10</v>
       </c>
       <c r="AH7">
-        <v>0.09029800582567782</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.1011800150640221</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>-0.03889457523029684</v>
+        <v>-0.1626016260162602</v>
       </c>
       <c r="AK7">
-        <v>-0.04434072345390899</v>
+        <v>-0.2801120448179272</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>-0.117</v>
+        <v>-0.031</v>
       </c>
       <c r="AQ7">
         <v>-0</v>
@@ -1314,7 +1329,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NH Special Purpose Acquisition 12 Co., Ltd. (KOSDAQ:A273060)</t>
+          <t>Lindeman Asia Investment Co., Ltd. (KOSDAQ:A277070)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1323,100 +1338,103 @@
         </is>
       </c>
       <c r="G8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.141</v>
+        <v>3.96</v>
       </c>
       <c r="L8">
-        <v>-7.049999999999999</v>
+        <v>0.5096525096525096</v>
       </c>
       <c r="M8">
-        <v>-0</v>
+        <v>1.026</v>
       </c>
       <c r="N8">
-        <v>-0</v>
+        <v>0.01576036866359447</v>
       </c>
       <c r="O8">
-        <v>-0</v>
+        <v>0.2590909090909091</v>
       </c>
       <c r="P8">
-        <v>-0</v>
+        <v>1.026</v>
       </c>
       <c r="Q8">
-        <v>-0</v>
+        <v>0.01576036866359447</v>
       </c>
       <c r="R8">
-        <v>-0</v>
+        <v>0.2590909090909091</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
       <c r="U8">
-        <v>0.074</v>
+        <v>3.92</v>
       </c>
       <c r="V8">
-        <v>0.005522388059701492</v>
+        <v>0.06021505376344086</v>
       </c>
       <c r="W8">
-        <v>0.01119047619047619</v>
+        <v>0.1067385444743935</v>
       </c>
       <c r="X8">
-        <v>0.05179519251055609</v>
+        <v>0.03788704609012515</v>
       </c>
       <c r="Y8">
-        <v>-0.0406047163200799</v>
+        <v>0.06885149838426838</v>
       </c>
       <c r="Z8">
-        <v>-0.001493651979088872</v>
+        <v>0.2254134029590949</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.05030084126967602</v>
+        <v>0.03788704609012515</v>
       </c>
       <c r="AC8">
-        <v>-0.05030084126967602</v>
+        <v>-0.03788704609012515</v>
       </c>
       <c r="AD8">
-        <v>0.769</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.769</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.6950000000000001</v>
+        <v>-3.92</v>
       </c>
       <c r="AH8">
-        <v>0.05427341379066977</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.06118227384835707</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.04930826534231997</v>
+        <v>-0.06407322654462243</v>
       </c>
       <c r="AK8">
-        <v>0.05562224889955982</v>
+        <v>-0.1043108036189462</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
-        <v>-0.216</v>
+        <v>-0.02</v>
       </c>
       <c r="AQ8">
         <v>-0</v>
@@ -1430,7 +1448,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Korea No.6 Special Purpose Acquisition Co., Ltd. (KOSDAQ:A281410)</t>
+          <t>NAU IB Capital (KOSDAQ:A293580)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1439,103 +1457,103 @@
         </is>
       </c>
       <c r="G9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.062</v>
+        <v>4.43</v>
       </c>
       <c r="L9">
-        <v>-6.2</v>
+        <v>0.605191256830601</v>
       </c>
       <c r="M9">
-        <v>-0</v>
+        <v>1.21905</v>
       </c>
       <c r="N9">
-        <v>-0</v>
+        <v>0.01935</v>
       </c>
       <c r="O9">
-        <v>-0</v>
+        <v>0.2751805869074492</v>
       </c>
       <c r="P9">
-        <v>-0</v>
+        <v>1.21905</v>
       </c>
       <c r="Q9">
-        <v>-0</v>
+        <v>0.01935</v>
       </c>
       <c r="R9">
-        <v>-0</v>
+        <v>0.2751805869074492</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
       <c r="U9">
-        <v>0.151</v>
+        <v>6.48</v>
       </c>
       <c r="V9">
-        <v>0.01892230576441102</v>
+        <v>0.1028571428571429</v>
       </c>
       <c r="W9">
-        <v>0.008136482939632546</v>
+        <v>0.07624784853700516</v>
       </c>
       <c r="X9">
-        <v>0.05155448198902171</v>
+        <v>0.03788704609012515</v>
       </c>
       <c r="Y9">
-        <v>-0.04341799904938917</v>
+        <v>0.03836080244688</v>
       </c>
       <c r="Z9">
-        <v>-0.001372495196266813</v>
+        <v>0.1702325581395349</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.05032636001252139</v>
+        <v>0.03788704609012515</v>
       </c>
       <c r="AC9">
-        <v>-0.05032636001252139</v>
+        <v>-0.03788704609012515</v>
       </c>
       <c r="AD9">
-        <v>0.376</v>
+        <v>0</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.376</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>0.225</v>
+        <v>-6.48</v>
       </c>
       <c r="AH9">
-        <v>0.04499760651029201</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.05016008537886873</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0.02742230347349177</v>
+        <v>-0.1146496815286624</v>
       </c>
       <c r="AK9">
-        <v>0.03063308373042887</v>
+        <v>-0.1063690085357846</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
-        <v>-0.122</v>
-      </c>
-      <c r="AQ9">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1546,7 +1564,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Daesung Private Equity, Inc. (KOSDAQ:A027830)</t>
+          <t>G Enone Energy Co., Ltd. (KOSDAQ:A270520)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1554,35 +1572,32 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D10">
-        <v>-0.0517</v>
-      </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.02644230769230769</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K10">
-        <v>-2.01</v>
+        <v>-6</v>
       </c>
       <c r="L10">
-        <v>-0.3570159857904085</v>
+        <v>1.442307692307692</v>
       </c>
       <c r="M10">
-        <v>-0</v>
+        <v>2.36</v>
       </c>
       <c r="N10">
-        <v>-0</v>
+        <v>0.0340057636887608</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>-0.3933333333333333</v>
       </c>
       <c r="P10">
         <v>-0</v>
@@ -1594,63 +1609,72 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>2.36</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>5.29</v>
+        <v>8.6</v>
       </c>
       <c r="V10">
-        <v>0.07644508670520231</v>
+        <v>0.1239193083573487</v>
       </c>
       <c r="W10">
-        <v>-0.04427312775330396</v>
+        <v>-0.8379888268156425</v>
       </c>
       <c r="X10">
-        <v>0.05045015326463245</v>
+        <v>0.03791392368028915</v>
       </c>
       <c r="Y10">
-        <v>-0.09472328101793642</v>
+        <v>-0.8759027504959316</v>
       </c>
       <c r="Z10">
-        <v>0.1531972789115646</v>
+        <v>-0.5810055865921788</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.05045015326463245</v>
+        <v>0.03789479855904879</v>
       </c>
       <c r="AC10">
-        <v>-0.05045015326463245</v>
+        <v>-0.03789479855904879</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="AG10">
-        <v>-5.29</v>
+        <v>-8.513</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>0.001252032754328147</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>0.004087001456287875</v>
       </c>
       <c r="AJ10">
-        <v>-0.08277264903770927</v>
+        <v>-0.1398163811651091</v>
       </c>
       <c r="AK10">
-        <v>-0.1519678253375467</v>
+        <v>-0.6710018128793254</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="AM10">
+        <v>0.019</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
         <v>0</v>
       </c>
     </row>
@@ -1662,7 +1686,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Atinum Investment Co., Ltd (KOSDAQ:A021080)</t>
+          <t>Hi Special Purpose Acquisition Company IV</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1670,29 +1694,23 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D11">
-        <v>0.0999</v>
-      </c>
-      <c r="E11">
-        <v>-0.04099999999999999</v>
-      </c>
       <c r="G11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K11">
-        <v>1.35</v>
+        <v>-0.004</v>
       </c>
       <c r="L11">
-        <v>0.1205357142857143</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M11">
         <v>-0</v>
@@ -1701,7 +1719,7 @@
         <v>-0</v>
       </c>
       <c r="O11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>-0</v>
@@ -1710,67 +1728,67 @@
         <v>-0</v>
       </c>
       <c r="R11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>15.3</v>
+        <v>1.25</v>
       </c>
       <c r="V11">
-        <v>0.1900621118012422</v>
+        <v>0.009541984732824428</v>
       </c>
       <c r="W11">
-        <v>0.01942446043165468</v>
+        <v>-0.0005681818181818182</v>
       </c>
       <c r="X11">
-        <v>0.05045015326463245</v>
+        <v>0.03804514773052436</v>
       </c>
       <c r="Y11">
-        <v>-0.03102569283297777</v>
+        <v>-0.03861332954870618</v>
       </c>
       <c r="Z11">
-        <v>0.1917808219178082</v>
+        <v>-0.006289308176100629</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.05045015326463245</v>
+        <v>0.0378961369244433</v>
       </c>
       <c r="AC11">
-        <v>-0.05045015326463245</v>
+        <v>-0.0378961369244433</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>0.966</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>0.966</v>
       </c>
       <c r="AG11">
-        <v>-15.3</v>
+        <v>-0.284</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.00732006729005956</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.1175754625121714</v>
       </c>
       <c r="AJ11">
-        <v>-0.2346625766871166</v>
+        <v>-0.002172649101869702</v>
       </c>
       <c r="AK11">
-        <v>-0.3161157024793388</v>
+        <v>-0.0407694516221648</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
-        <v>-0.41</v>
+        <v>-0.105</v>
       </c>
       <c r="AQ11">
         <v>-0</v>
@@ -1784,7 +1802,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Woori Technology Investment Co., Ltd. (KOSDAQ:A041190)</t>
+          <t>Company K Partners Limited (KOSDAQ:A307930)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1792,9 +1810,6 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="E12">
-        <v>0.144</v>
-      </c>
       <c r="G12">
         <v>0</v>
       </c>
@@ -1808,91 +1823,91 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.869999999999999</v>
+        <v>8.31</v>
       </c>
       <c r="L12">
-        <v>136.4615384615385</v>
+        <v>0.5852112676056339</v>
       </c>
       <c r="M12">
-        <v>0.6096</v>
+        <v>-0</v>
       </c>
       <c r="N12">
-        <v>0.003672289156626506</v>
+        <v>-0</v>
       </c>
       <c r="O12">
-        <v>0.06872604284103721</v>
+        <v>-0</v>
       </c>
       <c r="P12">
-        <v>0.6096</v>
+        <v>-0</v>
       </c>
       <c r="Q12">
-        <v>0.003672289156626506</v>
+        <v>-0</v>
       </c>
       <c r="R12">
-        <v>0.06872604284103721</v>
+        <v>-0</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
       <c r="U12">
-        <v>12.7</v>
+        <v>4.04</v>
       </c>
       <c r="V12">
-        <v>0.07650602409638554</v>
+        <v>0.04160659114315139</v>
       </c>
       <c r="W12">
-        <v>0.172568093385214</v>
+        <v>0.2141752577319588</v>
       </c>
       <c r="X12">
-        <v>0.05045015326463245</v>
+        <v>0.03793385701008736</v>
       </c>
       <c r="Y12">
-        <v>0.1221179401205816</v>
+        <v>0.1762414007218714</v>
       </c>
       <c r="Z12">
-        <v>0.001502890173410405</v>
+        <v>0.4006319828461798</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.05045015326463245</v>
+        <v>0.03790053552655767</v>
       </c>
       <c r="AC12">
-        <v>-0.05045015326463245</v>
+        <v>-0.03790053552655767</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>0.212</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>0.212</v>
       </c>
       <c r="AG12">
-        <v>-12.7</v>
+        <v>-3.828</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>0.00217855968431437</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>0.004597501734906315</v>
       </c>
       <c r="AJ12">
-        <v>-0.08284409654272668</v>
+        <v>-0.04104125568230552</v>
       </c>
       <c r="AK12">
-        <v>-0.3009478672985781</v>
+        <v>-0.09098687963491159</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>-0.006</v>
+      </c>
+      <c r="AQ12">
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -1903,7 +1918,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mirae Asset Venture Investment Co., Ltd. (KOSDAQ:A100790)</t>
+          <t>DB Finance No.7 Special Acquisition Co., Ltd. (KOSDAQ:A322780)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1912,22 +1927,22 @@
         </is>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K13">
-        <v>5.73</v>
+        <v>0.014</v>
       </c>
       <c r="L13">
-        <v>0.09009433962264152</v>
+        <v>-0.4117647058823529</v>
       </c>
       <c r="M13">
         <v>-0</v>
@@ -1951,61 +1966,64 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>62.2</v>
+        <v>1.49</v>
       </c>
       <c r="V13">
-        <v>0.4832944832944834</v>
+        <v>0.02018970189701897</v>
       </c>
       <c r="W13">
-        <v>0.05355140186915888</v>
+        <v>0.001904761904761905</v>
       </c>
       <c r="X13">
-        <v>0.05045015326463245</v>
+        <v>0.03822114266536544</v>
       </c>
       <c r="Y13">
-        <v>0.00310124860452643</v>
+        <v>-0.03631638076060354</v>
       </c>
       <c r="Z13">
-        <v>1.286147623862487</v>
+        <v>-0.004927536231884059</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.05045015326463245</v>
+        <v>0.03790610134984795</v>
       </c>
       <c r="AC13">
-        <v>-0.05045015326463245</v>
+        <v>-0.03790610134984795</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AG13">
-        <v>-62.2</v>
+        <v>-0.3400000000000001</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>0.01534356237491661</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>0.1356132075471698</v>
       </c>
       <c r="AJ13">
-        <v>-0.9353383458646619</v>
+        <v>-0.004628369180506399</v>
       </c>
       <c r="AK13">
-        <v>-1.026402640264027</v>
+        <v>-0.0486409155937053</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>-0.13</v>
+      </c>
+      <c r="AQ13">
+        <v>-0</v>
       </c>
     </row>
     <row r="14">
@@ -2016,7 +2034,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SV Investment Corp. (KOSDAQ:A289080)</t>
+          <t>Korea No.7 Special Purpose Acquisition Co., Ltd. (KOSDAQ:A291210)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2025,103 +2043,103 @@
         </is>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K14">
-        <v>-1.85</v>
+        <v>0.021</v>
       </c>
       <c r="L14">
-        <v>-0.1681818181818182</v>
+        <v>-1.3125</v>
       </c>
       <c r="M14">
-        <v>5.32</v>
+        <v>-0</v>
       </c>
       <c r="N14">
-        <v>0.06214953271028038</v>
+        <v>-0</v>
       </c>
       <c r="O14">
-        <v>-2.875675675675676</v>
+        <v>-0</v>
       </c>
       <c r="P14">
-        <v>5.32</v>
+        <v>-0</v>
       </c>
       <c r="Q14">
-        <v>0.06214953271028038</v>
+        <v>-0</v>
       </c>
       <c r="R14">
-        <v>-2.875675675675676</v>
+        <v>-0</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
       <c r="U14">
-        <v>6.5</v>
+        <v>1.03</v>
       </c>
       <c r="V14">
-        <v>0.07593457943925234</v>
+        <v>0.1083070452155626</v>
       </c>
       <c r="W14">
-        <v>-0.03406998158379374</v>
+        <v>0.002702702702702703</v>
       </c>
       <c r="X14">
-        <v>0.05045015326463245</v>
+        <v>0.03913152948458486</v>
       </c>
       <c r="Y14">
-        <v>-0.08452013484842619</v>
+        <v>-0.03642882678188215</v>
       </c>
       <c r="Z14">
-        <v>0.266990291262136</v>
+        <v>-0.002212695339510441</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.05045015326463245</v>
+        <v>0.03795517688159674</v>
       </c>
       <c r="AC14">
-        <v>-0.05045015326463245</v>
+        <v>-0.03795517688159674</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>0.552</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>0.552</v>
       </c>
       <c r="AG14">
-        <v>-6.5</v>
+        <v>-0.478</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>0.05485986881335719</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>0.06439570695286982</v>
       </c>
       <c r="AJ14">
-        <v>-0.08217446270543616</v>
+        <v>-0.0529229406554473</v>
       </c>
       <c r="AK14">
-        <v>-0.1675257731958763</v>
+        <v>-0.06337841421373641</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>-0.116</v>
+      </c>
+      <c r="AQ14">
+        <v>-0</v>
       </c>
     </row>
     <row r="15">
@@ -2132,7 +2150,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Lindeman Asia Investment Co., Ltd. (KOSDAQ:A277070)</t>
+          <t>Mirae Asset Venture Investment Co., Ltd. (KOSDAQ:A100790)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2153,94 +2171,91 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.34</v>
+        <v>16.8</v>
       </c>
       <c r="L15">
-        <v>0.4691011235955056</v>
+        <v>0.2118537200504414</v>
       </c>
       <c r="M15">
-        <v>0.8235</v>
+        <v>7.316</v>
       </c>
       <c r="N15">
-        <v>0.01640438247011952</v>
+        <v>0.03175347222222222</v>
       </c>
       <c r="O15">
-        <v>0.2465568862275449</v>
+        <v>0.4354761904761905</v>
       </c>
       <c r="P15">
-        <v>0.8235</v>
+        <v>7.314</v>
       </c>
       <c r="Q15">
-        <v>0.01640438247011952</v>
+        <v>0.03174479166666667</v>
       </c>
       <c r="R15">
-        <v>0.2465568862275449</v>
+        <v>0.4353571428571428</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.00199999999999978</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>0.0002733734281027583</v>
       </c>
       <c r="U15">
-        <v>2.63</v>
+        <v>57.9</v>
       </c>
       <c r="V15">
-        <v>0.05239043824701195</v>
+        <v>0.2513020833333333</v>
       </c>
       <c r="W15">
-        <v>0.09125683060109289</v>
+        <v>0.1368078175895766</v>
       </c>
       <c r="X15">
-        <v>0.05045015326463245</v>
+        <v>0.03812713261002269</v>
       </c>
       <c r="Y15">
-        <v>0.04080667733646044</v>
+        <v>0.09868068497955386</v>
       </c>
       <c r="Z15">
-        <v>0.1999887646761418</v>
+        <v>1.308580858085809</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.05045015326463245</v>
+        <v>0.03795561471003975</v>
       </c>
       <c r="AC15">
-        <v>-0.05045015326463245</v>
+        <v>-0.03795561471003975</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AG15">
-        <v>-2.63</v>
+        <v>-55.32</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>0.01107391192377028</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>0.01819720694033009</v>
       </c>
       <c r="AJ15">
-        <v>-0.05528694555392054</v>
+        <v>-0.3159698423577793</v>
       </c>
       <c r="AK15">
-        <v>-0.07629823034522773</v>
+        <v>-0.659513590844063</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15">
-        <v>-0.03</v>
-      </c>
-      <c r="AQ15">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2251,7 +2266,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NAU IB Capital (KOSDAQ:A293580)</t>
+          <t>Hana Must Sixth Special Purpose Acquisition Company (KOSDAQ:A307160)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2260,22 +2275,22 @@
         </is>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K16">
-        <v>1.81</v>
+        <v>0.056</v>
       </c>
       <c r="L16">
-        <v>0.3153310104529617</v>
+        <v>-4.307692307692308</v>
       </c>
       <c r="M16">
         <v>-0</v>
@@ -2299,61 +2314,64 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>15.1</v>
+        <v>1.19</v>
       </c>
       <c r="V16">
-        <v>0.4037433155080214</v>
+        <v>0.1312017640573319</v>
       </c>
       <c r="W16">
-        <v>0.02924071082390953</v>
+        <v>0.008104196816208394</v>
       </c>
       <c r="X16">
-        <v>0.05045015326463245</v>
+        <v>0.03936682758288301</v>
       </c>
       <c r="Y16">
-        <v>-0.02120944244072292</v>
+        <v>-0.03126263076667462</v>
       </c>
       <c r="Z16">
-        <v>0.1555555555555556</v>
+        <v>-0.002048857368006304</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.05045015326463245</v>
+        <v>0.03796722689210139</v>
       </c>
       <c r="AC16">
-        <v>-0.05045015326463245</v>
+        <v>-0.03796722689210139</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>0.626</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>0.626</v>
       </c>
       <c r="AG16">
-        <v>-15.1</v>
+        <v>-0.5639999999999999</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>0.06456270627062706</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>0.08029758850692663</v>
       </c>
       <c r="AJ16">
-        <v>-0.6771300448430494</v>
+        <v>-0.06630613684458028</v>
       </c>
       <c r="AK16">
-        <v>-0.3511627906976744</v>
+        <v>-0.08537693006357856</v>
       </c>
       <c r="AL16">
         <v>0</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>-0.095</v>
+      </c>
+      <c r="AQ16">
+        <v>-0</v>
       </c>
     </row>
     <row r="17">
@@ -2364,7 +2382,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Globon Co., Ltd. (KOSDAQ:A019660)</t>
+          <t>Korea No.8 Special Purpose Acquisition Co., Ltd. (KOSDAQ:A310870)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2373,22 +2391,22 @@
         </is>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K17">
-        <v>-6.5</v>
+        <v>0.038</v>
       </c>
       <c r="L17">
-        <v>-0.727069351230425</v>
+        <v>-3.166666666666667</v>
       </c>
       <c r="M17">
         <v>-0</v>
@@ -2397,7 +2415,7 @@
         <v>-0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P17">
         <v>-0</v>
@@ -2406,67 +2424,67 @@
         <v>-0</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="U17">
-        <v>7.64</v>
+        <v>0.704</v>
       </c>
       <c r="V17">
-        <v>0.09658659924146649</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="W17">
-        <v>-0.2589641434262948</v>
+        <v>0.007129455909943715</v>
       </c>
       <c r="X17">
-        <v>0.05320873980281571</v>
+        <v>0.03938461748189194</v>
       </c>
       <c r="Y17">
-        <v>-0.3121728832291105</v>
+        <v>-0.03225516157194822</v>
       </c>
       <c r="Z17">
-        <v>0.2965174129353234</v>
+        <v>-0.002369200394866732</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0.05063432009313282</v>
+        <v>0.03796812789048339</v>
       </c>
       <c r="AC17">
-        <v>-0.05063432009313282</v>
+        <v>-0.03796812789048339</v>
       </c>
       <c r="AD17">
-        <v>9.31</v>
+        <v>0.461</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>9.31</v>
+        <v>0.461</v>
       </c>
       <c r="AG17">
-        <v>1.670000000000001</v>
+        <v>-0.2429999999999999</v>
       </c>
       <c r="AH17">
-        <v>0.105304829770388</v>
+        <v>0.0652882028041354</v>
       </c>
       <c r="AI17">
-        <v>0.3371966678739587</v>
+        <v>0.07694875646803538</v>
       </c>
       <c r="AJ17">
-        <v>0.02067599356196609</v>
+        <v>-0.03822557810287871</v>
       </c>
       <c r="AK17">
-        <v>0.08362543815723589</v>
+        <v>-0.04596179307735955</v>
       </c>
       <c r="AL17">
         <v>0</v>
       </c>
       <c r="AM17">
-        <v>-0.556</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="AQ17">
         <v>-0</v>
@@ -2480,7 +2498,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Q Capital Partners Co., Ltd. (KOSDAQ:A016600)</t>
+          <t>Sangsangin Ian No.1 Special Purpose Acquisition Co., Ltd. (KOSDAQ:A307870)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2501,10 +2519,10 @@
         <v>-0</v>
       </c>
       <c r="K18">
-        <v>-9.69</v>
+        <v>0.081</v>
       </c>
       <c r="L18">
-        <v>11.86046511627907</v>
+        <v>-4.05</v>
       </c>
       <c r="M18">
         <v>-0</v>
@@ -2513,7 +2531,7 @@
         <v>-0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P18">
         <v>-0</v>
@@ -2522,67 +2540,67 @@
         <v>-0</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0.406</v>
+        <v>0.074</v>
       </c>
       <c r="V18">
-        <v>0.004927184466019418</v>
+        <v>0.0083710407239819</v>
       </c>
       <c r="W18">
-        <v>-0.09056074766355139</v>
+        <v>0.01088709677419355</v>
       </c>
       <c r="X18">
-        <v>0.05414783523465874</v>
+        <v>0.03981521647827416</v>
       </c>
       <c r="Y18">
-        <v>-0.1447085828982101</v>
+        <v>-0.02892811970408061</v>
       </c>
       <c r="Z18">
-        <v>-0.009347826086956522</v>
+        <v>-0.002462144527883787</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0.05068847195106138</v>
+        <v>0.03798951782265804</v>
       </c>
       <c r="AC18">
-        <v>-0.05068847195106138</v>
+        <v>-0.03798951782265804</v>
       </c>
       <c r="AD18">
-        <v>13</v>
+        <v>0.795</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>13</v>
+        <v>0.795</v>
       </c>
       <c r="AG18">
-        <v>12.594</v>
+        <v>0.7210000000000001</v>
       </c>
       <c r="AH18">
-        <v>0.1362683438155136</v>
+        <v>0.0825116761805916</v>
       </c>
       <c r="AI18">
-        <v>0.1256038647342995</v>
+        <v>0.09314586994727593</v>
       </c>
       <c r="AJ18">
-        <v>0.132576794323852</v>
+        <v>0.07541052191193391</v>
       </c>
       <c r="AK18">
-        <v>0.1221603585077696</v>
+        <v>0.0852145136508687</v>
       </c>
       <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18">
-        <v>-0.001</v>
+        <v>-0.136</v>
       </c>
       <c r="AQ18">
         <v>-0</v>
@@ -2596,7 +2614,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Korea No.7 Special Purpose Acquisition Co., Ltd. (KOSDAQ:A291210)</t>
+          <t>Daishin Balance No.6 Special Purpose Acquisition Co., Ltd. (KOSDAQ:A307750)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2617,10 +2635,10 @@
         <v>-0</v>
       </c>
       <c r="K19">
-        <v>0.066</v>
+        <v>0.075</v>
       </c>
       <c r="L19">
-        <v>-4.125</v>
+        <v>-1.293103448275862</v>
       </c>
       <c r="M19">
         <v>-0</v>
@@ -2647,58 +2665,58 @@
         <v>1.06</v>
       </c>
       <c r="V19">
-        <v>0.1172566371681416</v>
+        <v>0.02314410480349345</v>
       </c>
       <c r="W19">
-        <v>0.007923169267707083</v>
+        <v>0.009375</v>
       </c>
       <c r="X19">
-        <v>0.05180092731199475</v>
+        <v>0.03818945709079472</v>
       </c>
       <c r="Y19">
-        <v>-0.04387775804428766</v>
+        <v>-0.02881445709079471</v>
       </c>
       <c r="Z19">
-        <v>-0.002081706999739787</v>
+        <v>-0.006965293623153597</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0.05070075707175797</v>
+        <v>0.03801677052651937</v>
       </c>
       <c r="AC19">
-        <v>-0.05070075707175797</v>
+        <v>-0.03801677052651937</v>
       </c>
       <c r="AD19">
-        <v>0.521</v>
+        <v>0.646</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>0.521</v>
+        <v>0.646</v>
       </c>
       <c r="AG19">
-        <v>-0.539</v>
+        <v>-0.414</v>
       </c>
       <c r="AH19">
-        <v>0.054492207928041</v>
+        <v>0.01390862506997373</v>
       </c>
       <c r="AI19">
-        <v>0.06283922325413098</v>
+        <v>0.07213041536400178</v>
       </c>
       <c r="AJ19">
-        <v>-0.06340430537583815</v>
+        <v>-0.009121755607456046</v>
       </c>
       <c r="AK19">
-        <v>-0.07454017424975799</v>
+        <v>-0.05243161094224924</v>
       </c>
       <c r="AL19">
         <v>0</v>
       </c>
       <c r="AM19">
-        <v>-0.134</v>
+        <v>-0.192</v>
       </c>
       <c r="AQ19">
         <v>-0</v>
@@ -2712,7 +2730,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Yuanta 3 SPECIAL PURPOSE ACQUISITION CO., LTD. (KOSDAQ:A287410)</t>
+          <t>KB No.17 Special Purpose Acquisition Company (KOSDAQ:A317030)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2733,10 +2751,10 @@
         <v>-0</v>
       </c>
       <c r="K20">
-        <v>0.034</v>
+        <v>0.068</v>
       </c>
       <c r="L20">
-        <v>-1.7</v>
+        <v>-11.33333333333333</v>
       </c>
       <c r="M20">
         <v>-0</v>
@@ -2760,61 +2778,61 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0.9389999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="V20">
-        <v>0.1224250325945241</v>
+        <v>0.01650485436893204</v>
       </c>
       <c r="W20">
-        <v>0.004934687953555878</v>
+        <v>0.007736063708759956</v>
       </c>
       <c r="X20">
-        <v>0.05193219280179151</v>
+        <v>0.04044739075208054</v>
       </c>
       <c r="Y20">
-        <v>-0.04699750484823563</v>
+        <v>-0.03271132704332058</v>
       </c>
       <c r="Z20">
-        <v>-0.00315855969677827</v>
+        <v>-0.0006237006237006238</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0.0507236618936225</v>
+        <v>0.03801953040785618</v>
       </c>
       <c r="AC20">
-        <v>-0.0507236618936225</v>
+        <v>-0.03801953040785618</v>
       </c>
       <c r="AD20">
-        <v>0.485</v>
+        <v>1.23</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>0.485</v>
+        <v>1.23</v>
       </c>
       <c r="AG20">
-        <v>-0.454</v>
+        <v>1.06</v>
       </c>
       <c r="AH20">
-        <v>0.05947271612507665</v>
+        <v>0.1066782307025152</v>
       </c>
       <c r="AI20">
-        <v>0.07023895727733526</v>
+        <v>0.1202346041055718</v>
       </c>
       <c r="AJ20">
-        <v>-0.06291574279379157</v>
+        <v>0.09330985915492958</v>
       </c>
       <c r="AK20">
-        <v>-0.07609788803218236</v>
+        <v>0.1053677932405567</v>
       </c>
       <c r="AL20">
         <v>0</v>
       </c>
       <c r="AM20">
-        <v>-0.104</v>
+        <v>-0.134</v>
       </c>
       <c r="AQ20">
         <v>-0</v>
@@ -2828,7 +2846,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Dongbu 5th Special Purpose Acquisition Co., Ltd. (KOSDAQ:A281740)</t>
+          <t>Shinyoung HappyTomorrow No.5 Special Purpose Acquisition Company (KOSDAQ:A323280)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2849,10 +2867,10 @@
         <v>-0</v>
       </c>
       <c r="K21">
-        <v>0.079</v>
+        <v>-0.053</v>
       </c>
       <c r="L21">
-        <v>-4.647058823529411</v>
+        <v>2.12</v>
       </c>
       <c r="M21">
         <v>-0</v>
@@ -2861,7 +2879,7 @@
         <v>-0</v>
       </c>
       <c r="O21">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>-0</v>
@@ -2870,67 +2888,67 @@
         <v>-0</v>
       </c>
       <c r="R21">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="U21">
-        <v>1.16</v>
+        <v>0.886</v>
       </c>
       <c r="V21">
-        <v>0.1371158392434988</v>
+        <v>0.1326347305389222</v>
       </c>
       <c r="W21">
-        <v>0.009962168978562422</v>
+        <v>-0.008862876254180601</v>
       </c>
       <c r="X21">
-        <v>0.05206252819371189</v>
+        <v>0.04066657998766053</v>
       </c>
       <c r="Y21">
-        <v>-0.04210035921514947</v>
+        <v>-0.04952945624184113</v>
       </c>
       <c r="Z21">
-        <v>-0.002334844114819393</v>
+        <v>-0.004235852253473399</v>
       </c>
       <c r="AA21">
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0.05074616691684398</v>
+        <v>0.03802957066706765</v>
       </c>
       <c r="AC21">
-        <v>-0.05074616691684398</v>
+        <v>-0.03802957066706765</v>
       </c>
       <c r="AD21">
-        <v>0.582</v>
+        <v>0.866</v>
       </c>
       <c r="AE21">
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>0.582</v>
+        <v>0.866</v>
       </c>
       <c r="AG21">
-        <v>-0.578</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="AH21">
-        <v>0.06436629064366289</v>
+        <v>0.114762788232176</v>
       </c>
       <c r="AI21">
-        <v>0.07273181704573856</v>
+        <v>0.1279929057049956</v>
       </c>
       <c r="AJ21">
-        <v>-0.07333164171530067</v>
+        <v>-0.003003003003003006</v>
       </c>
       <c r="AK21">
-        <v>-0.08447822274188833</v>
+        <v>-0.00340136054421769</v>
       </c>
       <c r="AL21">
         <v>0</v>
       </c>
       <c r="AM21">
-        <v>-0.132</v>
+        <v>-0.058</v>
       </c>
       <c r="AQ21">
         <v>-0</v>
@@ -2944,7 +2962,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DSC Investment Inc. (KOSDAQ:A241520)</t>
+          <t>M-Venture Investment, Inc. (KOSDAQ:A019590)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2952,6 +2970,9 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D22">
+        <v>0.54</v>
+      </c>
       <c r="G22">
         <v>0</v>
       </c>
@@ -2965,10 +2986,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>5.61</v>
+        <v>-0.729</v>
       </c>
       <c r="L22">
-        <v>0.3895833333333333</v>
+        <v>-0.1342541436464088</v>
       </c>
       <c r="M22">
         <v>-0</v>
@@ -2977,7 +2998,7 @@
         <v>-0</v>
       </c>
       <c r="O22">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>-0</v>
@@ -2986,70 +3007,67 @@
         <v>-0</v>
       </c>
       <c r="R22">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="U22">
-        <v>4.62</v>
+        <v>1.91</v>
       </c>
       <c r="V22">
-        <v>0.08901734104046244</v>
+        <v>0.03178036605657238</v>
       </c>
       <c r="W22">
-        <v>0.2377118644067797</v>
+        <v>-0.02413907284768212</v>
       </c>
       <c r="X22">
-        <v>0.05595957334885955</v>
+        <v>0.04079093820959627</v>
       </c>
       <c r="Y22">
-        <v>0.1817522910579201</v>
+        <v>-0.06493001105727839</v>
       </c>
       <c r="Z22">
-        <v>0.4182399070577985</v>
+        <v>0.1482391482391482</v>
       </c>
       <c r="AA22">
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0.05078301580244705</v>
+        <v>0.03803518667540036</v>
       </c>
       <c r="AC22">
-        <v>-0.05078301580244705</v>
+        <v>-0.03803518667540036</v>
       </c>
       <c r="AD22">
-        <v>12.2</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="AE22">
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>12.2</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="AG22">
-        <v>7.579999999999999</v>
+        <v>6.23</v>
       </c>
       <c r="AH22">
-        <v>0.1903276131045242</v>
+        <v>0.119284876905041</v>
       </c>
       <c r="AI22">
-        <v>0.2968369829683699</v>
+        <v>0.2079713847726112</v>
       </c>
       <c r="AJ22">
-        <v>0.1274377942165434</v>
+        <v>0.09392431780491482</v>
       </c>
       <c r="AK22">
-        <v>0.2077850877192982</v>
+        <v>0.1673381681439699</v>
       </c>
       <c r="AL22">
         <v>0</v>
       </c>
       <c r="AM22">
-        <v>-0.004</v>
-      </c>
-      <c r="AQ22">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -3060,7 +3078,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AJU IB INVESTMENT Co., Ltd. (KOSDAQ:A027360)</t>
+          <t>Mirae Asset Daewoo Special Purpose Acquisition Company 3 Co., Ltd. (KOSDAQ:A328380)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3068,110 +3086,104 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D23">
-        <v>-0.06619999999999999</v>
-      </c>
-      <c r="E23">
-        <v>-0.039</v>
-      </c>
       <c r="G23">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K23">
-        <v>4.41</v>
+        <v>0.064</v>
       </c>
       <c r="L23">
-        <v>0.1208219178082192</v>
+        <v>-1.28</v>
       </c>
       <c r="M23">
-        <v>2.4927</v>
+        <v>-0</v>
       </c>
       <c r="N23">
-        <v>0.01950469483568075</v>
+        <v>-0</v>
       </c>
       <c r="O23">
-        <v>0.5652380952380952</v>
+        <v>-0</v>
       </c>
       <c r="P23">
-        <v>2.4927</v>
+        <v>-0</v>
       </c>
       <c r="Q23">
-        <v>0.01950469483568075</v>
+        <v>-0</v>
       </c>
       <c r="R23">
-        <v>0.5652380952380952</v>
+        <v>-0</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
       <c r="U23">
-        <v>26.7</v>
+        <v>2.09</v>
       </c>
       <c r="V23">
-        <v>0.2089201877934272</v>
+        <v>0.1699186991869918</v>
       </c>
       <c r="W23">
-        <v>0.03392307692307692</v>
+        <v>0.006095238095238095</v>
       </c>
       <c r="X23">
-        <v>0.05626370877219611</v>
+        <v>0.04119895996642013</v>
       </c>
       <c r="Y23">
-        <v>-0.02234063184911918</v>
+        <v>-0.03510372187118203</v>
       </c>
       <c r="Z23">
-        <v>0.2448021462105969</v>
+        <v>-0.004873294346978557</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0.05079773879881362</v>
+        <v>0.03805321658986942</v>
       </c>
       <c r="AC23">
-        <v>-0.05079773879881362</v>
+        <v>-0.03805321658986942</v>
       </c>
       <c r="AD23">
-        <v>31.7</v>
+        <v>1.9</v>
       </c>
       <c r="AE23">
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>31.7</v>
+        <v>1.9</v>
       </c>
       <c r="AG23">
-        <v>5</v>
+        <v>-0.1899999999999999</v>
       </c>
       <c r="AH23">
-        <v>0.1987460815047022</v>
+        <v>0.1338028169014084</v>
       </c>
       <c r="AI23">
-        <v>0.190734055354994</v>
+        <v>0.1484375</v>
       </c>
       <c r="AJ23">
-        <v>0.03765060240963855</v>
+        <v>-0.01568951279933938</v>
       </c>
       <c r="AK23">
-        <v>0.03584229390681003</v>
+        <v>-0.01774042950513538</v>
       </c>
       <c r="AL23">
         <v>0</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>-0.176</v>
+      </c>
+      <c r="AQ23">
+        <v>-0</v>
       </c>
     </row>
     <row r="24">
@@ -3182,7 +3194,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SBI Investment Korea Co., Ltd. (KOSDAQ:A019550)</t>
+          <t>SBI Investment KOREA Co., Ltd. (KOSDAQ:A019550)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3191,7 +3203,10 @@
         </is>
       </c>
       <c r="D24">
-        <v>0.182</v>
+        <v>0.118</v>
+      </c>
+      <c r="E24">
+        <v>0.214</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3206,10 +3221,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.58</v>
+        <v>14.9</v>
       </c>
       <c r="L24">
-        <v>0.28625</v>
+        <v>0.6056910569105691</v>
       </c>
       <c r="M24">
         <v>-0</v>
@@ -3233,55 +3248,55 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>0.459</v>
+        <v>4.65</v>
       </c>
       <c r="V24">
-        <v>0.004585414585414586</v>
+        <v>0.02443510246978455</v>
       </c>
       <c r="W24">
-        <v>0.06002621231979031</v>
+        <v>0.2018970189701897</v>
       </c>
       <c r="X24">
-        <v>0.05253869997132966</v>
+        <v>0.03856416700579116</v>
       </c>
       <c r="Y24">
-        <v>0.007487512348460644</v>
+        <v>0.1633328519643986</v>
       </c>
       <c r="Z24">
-        <v>0.1838446512696771</v>
+        <v>0.2990481516149816</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0.05082643395833231</v>
+        <v>0.03807661032067667</v>
       </c>
       <c r="AC24">
-        <v>-0.05082643395833231</v>
+        <v>-0.03807661032067667</v>
       </c>
       <c r="AD24">
-        <v>8.92</v>
+        <v>6.01</v>
       </c>
       <c r="AE24">
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>8.92</v>
+        <v>6.01</v>
       </c>
       <c r="AG24">
-        <v>8.461</v>
+        <v>1.359999999999999</v>
       </c>
       <c r="AH24">
-        <v>0.08181984956888645</v>
+        <v>0.03061484386939025</v>
       </c>
       <c r="AI24">
-        <v>0.1078336557059961</v>
+        <v>0.06150854569644867</v>
       </c>
       <c r="AJ24">
-        <v>0.07793774928381279</v>
+        <v>0.007095898987790876</v>
       </c>
       <c r="AK24">
-        <v>0.1028555451550553</v>
+        <v>0.01461422738018482</v>
       </c>
       <c r="AL24">
         <v>0</v>
@@ -3298,7 +3313,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>KB No.11 Special Purpose Acquisition Company (KOSDAQ:A258790)</t>
+          <t>NH Special Purpose Acquisition 13 Co., Ltd. (KOSDAQ:A310840)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3319,10 +3334,10 @@
         <v>-0</v>
       </c>
       <c r="K25">
-        <v>-0.013</v>
+        <v>0.007</v>
       </c>
       <c r="L25">
-        <v>0.8666666666666667</v>
+        <v>-0.2121212121212121</v>
       </c>
       <c r="M25">
         <v>-0</v>
@@ -3331,7 +3346,7 @@
         <v>-0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P25">
         <v>-0</v>
@@ -3340,67 +3355,67 @@
         <v>-0</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="U25">
-        <v>0.03</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="V25">
-        <v>0.006355932203389831</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="W25">
-        <v>-0.002380952380952381</v>
+        <v>0.001286764705882353</v>
       </c>
       <c r="X25">
-        <v>0.05356358219952512</v>
+        <v>0.04191112352398287</v>
       </c>
       <c r="Y25">
-        <v>-0.0559445345804775</v>
+        <v>-0.04062435881810051</v>
       </c>
       <c r="Z25">
-        <v>-0.002500416736122687</v>
+        <v>-0.00507380073800738</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0.05098942867260667</v>
+        <v>0.03808330175387264</v>
       </c>
       <c r="AC25">
-        <v>-0.05098942867260667</v>
+        <v>-0.03808330175387264</v>
       </c>
       <c r="AD25">
-        <v>0.627</v>
+        <v>1.25</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>0.627</v>
+        <v>1.25</v>
       </c>
       <c r="AG25">
-        <v>0.597</v>
+        <v>1.178</v>
       </c>
       <c r="AH25">
-        <v>0.1172620160837853</v>
+        <v>0.1580278128950695</v>
       </c>
       <c r="AI25">
-        <v>0.1104456579179144</v>
+        <v>0.1822157434402332</v>
       </c>
       <c r="AJ25">
-        <v>0.1122813616701147</v>
+        <v>0.150293442204644</v>
       </c>
       <c r="AK25">
-        <v>0.1057198512484505</v>
+        <v>0.1735415439010017</v>
       </c>
       <c r="AL25">
         <v>0</v>
       </c>
       <c r="AM25">
-        <v>-0.1</v>
+        <v>-0.099</v>
       </c>
       <c r="AQ25">
         <v>-0</v>
@@ -3414,7 +3429,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Leaders Technology Investment Co., Ltd (KOSDAQ:A019570)</t>
+          <t>Yuanta 3 SPECIAL PURPOSE ACQUISITION CO., LTD. (KOSDAQ:A287410)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3422,26 +3437,23 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D26">
-        <v>0.124</v>
-      </c>
       <c r="G26">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K26">
-        <v>-3.32</v>
+        <v>-0.026</v>
       </c>
       <c r="L26">
-        <v>-0.8900804289544235</v>
+        <v>1.181818181818182</v>
       </c>
       <c r="M26">
         <v>-0</v>
@@ -3465,61 +3477,61 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>6.06</v>
+        <v>0.029</v>
       </c>
       <c r="V26">
-        <v>0.2033557046979866</v>
+        <v>0.001695906432748538</v>
       </c>
       <c r="W26">
-        <v>-0.3018181818181818</v>
+        <v>-0.004049844236760125</v>
       </c>
       <c r="X26">
-        <v>0.0622476104534618</v>
+        <v>0.03854028516964074</v>
       </c>
       <c r="Y26">
-        <v>-0.3640657922716436</v>
+        <v>-0.04259012940640086</v>
       </c>
       <c r="Z26">
-        <v>0.3116123642439432</v>
+        <v>-0.003687562856185048</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0.05103571995467332</v>
+        <v>0.03816281465846641</v>
       </c>
       <c r="AC26">
-        <v>-0.05103571995467332</v>
+        <v>-0.03816281465846641</v>
       </c>
       <c r="AD26">
-        <v>15</v>
+        <v>0.521</v>
       </c>
       <c r="AE26">
         <v>0</v>
       </c>
       <c r="AF26">
-        <v>15</v>
+        <v>0.521</v>
       </c>
       <c r="AG26">
-        <v>8.940000000000001</v>
+        <v>0.492</v>
       </c>
       <c r="AH26">
-        <v>0.3348214285714286</v>
+        <v>0.0295669939276999</v>
       </c>
       <c r="AI26">
-        <v>0.4918032786885246</v>
+        <v>0.07336994789466272</v>
       </c>
       <c r="AJ26">
-        <v>0.2307692307692308</v>
+        <v>0.02796725784447476</v>
       </c>
       <c r="AK26">
-        <v>0.3657937806873978</v>
+        <v>0.06957013574660634</v>
       </c>
       <c r="AL26">
         <v>0</v>
       </c>
       <c r="AM26">
-        <v>-0.001</v>
+        <v>-0.081</v>
       </c>
       <c r="AQ26">
         <v>-0</v>
@@ -3533,7 +3545,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>T.S. Investment Corporation (KOSDAQ:A246690)</t>
+          <t>Nh Special Purpose Acquisition 14 Co., Ltd. (KOSDAQ:A319400)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3542,22 +3554,22 @@
         </is>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K27">
-        <v>3.59</v>
+        <v>0.128</v>
       </c>
       <c r="L27">
-        <v>0.4164733178654292</v>
+        <v>-1.855072463768116</v>
       </c>
       <c r="M27">
         <v>-0</v>
@@ -3581,61 +3593,64 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>3.16</v>
+        <v>0.079</v>
       </c>
       <c r="V27">
-        <v>0.06345381526104418</v>
+        <v>0.001215384615384615</v>
       </c>
       <c r="W27">
-        <v>0.1424603174603175</v>
+        <v>0.00920863309352518</v>
       </c>
       <c r="X27">
-        <v>0.05389520028115519</v>
+        <v>0.03876774701005554</v>
       </c>
       <c r="Y27">
-        <v>0.08856511717916227</v>
+        <v>-0.02955911391653036</v>
       </c>
       <c r="Z27">
-        <v>0.2593261131167269</v>
+        <v>-0.004227423109913002</v>
       </c>
       <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0.05103950713725762</v>
+        <v>0.03825505020706498</v>
       </c>
       <c r="AC27">
-        <v>-0.05103950713725762</v>
+        <v>-0.03825505020706498</v>
       </c>
       <c r="AD27">
-        <v>7.32</v>
+        <v>2.67</v>
       </c>
       <c r="AE27">
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>7.32</v>
+        <v>2.67</v>
       </c>
       <c r="AG27">
-        <v>4.16</v>
+        <v>2.591</v>
       </c>
       <c r="AH27">
-        <v>0.1281512605042017</v>
+        <v>0.03945618442441259</v>
       </c>
       <c r="AI27">
-        <v>0.2084282460136674</v>
+        <v>0.1555037856726849</v>
       </c>
       <c r="AJ27">
-        <v>0.07709414381022982</v>
+        <v>0.03833350594013996</v>
       </c>
       <c r="AK27">
-        <v>0.130162703379224</v>
+        <v>0.1516002574454391</v>
       </c>
       <c r="AL27">
         <v>0</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>-0.25</v>
+      </c>
+      <c r="AQ27">
+        <v>-0</v>
       </c>
     </row>
     <row r="28">
@@ -3646,7 +3661,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>IBKS No.7 Special Purpose Acquisition Company (KOSDAQ:A276920)</t>
+          <t>T.S. Investment Corporation (KOSDAQ:A246690)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3655,103 +3670,103 @@
         </is>
       </c>
       <c r="G28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>0.039</v>
+        <v>4.4</v>
       </c>
       <c r="L28">
-        <v>-1.147058823529412</v>
+        <v>0.4413239719157472</v>
       </c>
       <c r="M28">
-        <v>-0</v>
+        <v>0.5103000000000001</v>
       </c>
       <c r="N28">
-        <v>-0</v>
+        <v>0.006354919053549192</v>
       </c>
       <c r="O28">
-        <v>-0</v>
+        <v>0.1159772727272727</v>
       </c>
       <c r="P28">
-        <v>-0</v>
+        <v>0.5103000000000001</v>
       </c>
       <c r="Q28">
-        <v>-0</v>
+        <v>0.006354919053549192</v>
       </c>
       <c r="R28">
-        <v>-0</v>
+        <v>0.1159772727272727</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
       <c r="U28">
-        <v>1.08</v>
+        <v>7.95</v>
       </c>
       <c r="V28">
-        <v>0.1636363636363637</v>
+        <v>0.09900373599003737</v>
       </c>
       <c r="W28">
-        <v>0.006027820710973725</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="X28">
-        <v>0.05417886473370791</v>
+        <v>0.03946235965113142</v>
       </c>
       <c r="Y28">
-        <v>-0.04815104402273418</v>
+        <v>0.1272043070155353</v>
       </c>
       <c r="Z28">
-        <v>-0.005329153605015674</v>
+        <v>0.3375084631008802</v>
       </c>
       <c r="AA28">
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>0.05108137380580476</v>
+        <v>0.03831085403046326</v>
       </c>
       <c r="AC28">
-        <v>-0.05108137380580476</v>
+        <v>-0.03831085403046326</v>
       </c>
       <c r="AD28">
-        <v>1.05</v>
+        <v>5.9</v>
       </c>
       <c r="AE28">
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>1.05</v>
+        <v>5.9</v>
       </c>
       <c r="AG28">
-        <v>-0.03000000000000003</v>
+        <v>-2.05</v>
       </c>
       <c r="AH28">
-        <v>0.1372549019607843</v>
+        <v>0.06844547563805105</v>
       </c>
       <c r="AI28">
-        <v>0.1483050847457627</v>
+        <v>0.1486146095717884</v>
       </c>
       <c r="AJ28">
-        <v>-0.004566210045662105</v>
+        <v>-0.02619808306709265</v>
       </c>
       <c r="AK28">
-        <v>-0.005000000000000004</v>
+        <v>-0.06456692913385827</v>
       </c>
       <c r="AL28">
         <v>0</v>
       </c>
       <c r="AM28">
-        <v>-0.112</v>
-      </c>
-      <c r="AQ28">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3762,7 +3777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Hanwha Ace  Special Purpose Acquisition 4th CO., LTD. (KOSDAQ:A279410)</t>
+          <t>Globon Co., Ltd. (KOSDAQ:A019660)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3771,22 +3786,22 @@
         </is>
       </c>
       <c r="G29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>0.032</v>
+        <v>-4.36</v>
       </c>
       <c r="L29">
-        <v>-0.8205128205128205</v>
+        <v>-0.960352422907489</v>
       </c>
       <c r="M29">
         <v>-0</v>
@@ -3795,7 +3810,7 @@
         <v>-0</v>
       </c>
       <c r="O29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P29">
         <v>-0</v>
@@ -3804,67 +3819,67 @@
         <v>-0</v>
       </c>
       <c r="R29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="U29">
-        <v>0.34</v>
+        <v>2.99</v>
       </c>
       <c r="V29">
-        <v>0.05501618122977347</v>
+        <v>0.03204715969989282</v>
       </c>
       <c r="W29">
-        <v>0.005351170568561873</v>
+        <v>-0.2382513661202186</v>
       </c>
       <c r="X29">
-        <v>0.05428057253614686</v>
+        <v>0.03971854735490246</v>
       </c>
       <c r="Y29">
-        <v>-0.04892940196758499</v>
+        <v>-0.277969913475121</v>
       </c>
       <c r="Z29">
-        <v>-0.005891238670694864</v>
+        <v>0.2273410115172759</v>
       </c>
       <c r="AA29">
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>0.05109617293631506</v>
+        <v>0.03837435219801838</v>
       </c>
       <c r="AC29">
-        <v>-0.05109617293631506</v>
+        <v>-0.03837435219801838</v>
       </c>
       <c r="AD29">
-        <v>1.01</v>
+        <v>7.97</v>
       </c>
       <c r="AE29">
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>1.01</v>
+        <v>7.97</v>
       </c>
       <c r="AG29">
-        <v>0.6699999999999999</v>
+        <v>4.98</v>
       </c>
       <c r="AH29">
-        <v>0.1404728789986092</v>
+        <v>0.07870050360422633</v>
       </c>
       <c r="AI29">
-        <v>0.1534954407294833</v>
+        <v>0.3782629330802088</v>
       </c>
       <c r="AJ29">
-        <v>0.09781021897810219</v>
+        <v>0.05067155067155067</v>
       </c>
       <c r="AK29">
-        <v>0.1073717948717949</v>
+        <v>0.2754424778761062</v>
       </c>
       <c r="AL29">
         <v>0</v>
       </c>
       <c r="AM29">
-        <v>-0.117</v>
+        <v>-0.592</v>
       </c>
       <c r="AQ29">
         <v>-0</v>
@@ -3878,7 +3893,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Kyobo 7 Special Purpose Acquisition Company (KOSDAQ:A267320)</t>
+          <t>Aju IB Investment Co., Ltd. (KOSDAQ:A027360)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3886,104 +3901,110 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D30">
+        <v>-0.0832</v>
+      </c>
+      <c r="E30">
+        <v>0.161</v>
+      </c>
       <c r="G30">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>-0.021</v>
+        <v>25.5</v>
       </c>
       <c r="L30">
-        <v>0.4468085106382979</v>
+        <v>0.4458041958041958</v>
       </c>
       <c r="M30">
-        <v>-0</v>
+        <v>7.715999999999999</v>
       </c>
       <c r="N30">
-        <v>-0</v>
+        <v>0.01826704545454545</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.3025882352941176</v>
       </c>
       <c r="P30">
-        <v>-0</v>
+        <v>3.456</v>
       </c>
       <c r="Q30">
-        <v>-0</v>
+        <v>0.008181818181818182</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>0.1355294117647059</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>4.26</v>
+      </c>
+      <c r="T30">
+        <v>0.552099533437014</v>
       </c>
       <c r="U30">
-        <v>1.78</v>
+        <v>14.4</v>
       </c>
       <c r="V30">
-        <v>0.2510578279266573</v>
+        <v>0.0340909090909091</v>
       </c>
       <c r="W30">
-        <v>-0.002974504249291785</v>
+        <v>0.1895910780669145</v>
       </c>
       <c r="X30">
-        <v>0.05630129268054211</v>
+        <v>0.03985139034383227</v>
       </c>
       <c r="Y30">
-        <v>-0.0592757969298339</v>
+        <v>0.1497396877230822</v>
       </c>
       <c r="Z30">
-        <v>-0.006801736613603473</v>
+        <v>0.4100358422939068</v>
       </c>
       <c r="AA30">
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>0.05136889364276247</v>
+        <v>0.03840673109558062</v>
       </c>
       <c r="AC30">
-        <v>-0.05136889364276247</v>
+        <v>-0.03840673109558062</v>
       </c>
       <c r="AD30">
-        <v>1.77</v>
+        <v>38.7</v>
       </c>
       <c r="AE30">
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>1.77</v>
+        <v>38.7</v>
       </c>
       <c r="AG30">
-        <v>-0.01000000000000001</v>
+        <v>24.3</v>
       </c>
       <c r="AH30">
-        <v>0.1997742663656885</v>
+        <v>0.08392973324658427</v>
       </c>
       <c r="AI30">
-        <v>0.2135102533172497</v>
+        <v>0.1982581967213115</v>
       </c>
       <c r="AJ30">
-        <v>-0.001412429378531075</v>
+        <v>0.05439892545332439</v>
       </c>
       <c r="AK30">
-        <v>-0.00153609831029186</v>
+        <v>0.1344026548672567</v>
       </c>
       <c r="AL30">
         <v>0</v>
       </c>
       <c r="AM30">
-        <v>-0.119</v>
-      </c>
-      <c r="AQ30">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3994,7 +4015,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>KTB Investment &amp; Securities Co., Ltd. (KOSE:A030210)</t>
+          <t>Kyobo 8 Special Purpose Acquisition Company (KOSDAQ:A307280)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4003,100 +4024,808 @@
         </is>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K31">
+        <v>-0.027</v>
+      </c>
+      <c r="L31">
+        <v>1.038461538461539</v>
+      </c>
+      <c r="M31">
+        <v>-0</v>
+      </c>
+      <c r="N31">
+        <v>-0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>-0</v>
+      </c>
+      <c r="Q31">
+        <v>-0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>1.27</v>
+      </c>
+      <c r="V31">
+        <v>0.08089171974522294</v>
+      </c>
+      <c r="W31">
+        <v>-0.004761904761904762</v>
+      </c>
+      <c r="X31">
+        <v>0.03916253817841386</v>
+      </c>
+      <c r="Y31">
+        <v>-0.04392444294031862</v>
+      </c>
+      <c r="Z31">
+        <v>-0.004968469329256641</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0.03841075235769407</v>
+      </c>
+      <c r="AC31">
+        <v>-0.03841075235769407</v>
+      </c>
+      <c r="AD31">
+        <v>0.9340000000000001</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0.9340000000000001</v>
+      </c>
+      <c r="AG31">
+        <v>-0.336</v>
+      </c>
+      <c r="AH31">
+        <v>0.05615005410604786</v>
+      </c>
+      <c r="AI31">
+        <v>0.1384934756820878</v>
+      </c>
+      <c r="AJ31">
+        <v>-0.02186930486852382</v>
+      </c>
+      <c r="AK31">
+        <v>-0.06138107416879796</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>-0.081</v>
+      </c>
+      <c r="AQ31">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DSC Investment Inc. (KOSDAQ:A241520)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>10.2</v>
+      </c>
+      <c r="L32">
+        <v>0.497560975609756</v>
+      </c>
+      <c r="M32">
+        <v>0.851</v>
+      </c>
+      <c r="N32">
+        <v>0.008552763819095477</v>
+      </c>
+      <c r="O32">
+        <v>0.08343137254901961</v>
+      </c>
+      <c r="P32">
+        <v>-0</v>
+      </c>
+      <c r="Q32">
+        <v>-0</v>
+      </c>
+      <c r="R32">
+        <v>-0</v>
+      </c>
+      <c r="S32">
+        <v>0.851</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>12.3</v>
+      </c>
+      <c r="V32">
+        <v>0.1236180904522613</v>
+      </c>
+      <c r="W32">
+        <v>0.3554006968641115</v>
+      </c>
+      <c r="X32">
+        <v>0.04021423275675846</v>
+      </c>
+      <c r="Y32">
+        <v>0.315186464107353</v>
+      </c>
+      <c r="Z32">
+        <v>0.5650496141124587</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0.03849332517511242</v>
+      </c>
+      <c r="AC32">
+        <v>-0.03849332517511242</v>
+      </c>
+      <c r="AD32">
+        <v>10.8</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>10.8</v>
+      </c>
+      <c r="AG32">
+        <v>-1.5</v>
+      </c>
+      <c r="AH32">
+        <v>0.09791477787851316</v>
+      </c>
+      <c r="AI32">
+        <v>0.2264150943396226</v>
+      </c>
+      <c r="AJ32">
+        <v>-0.01530612244897959</v>
+      </c>
+      <c r="AK32">
+        <v>-0.04237288135593221</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>-0.006</v>
+      </c>
+      <c r="AQ32">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Hanwha Sbi Special Purpose Acquisition Co., Ltd. (KOSDAQ:A317320)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="G33">
+        <v>-0</v>
+      </c>
+      <c r="H33">
+        <v>-0</v>
+      </c>
+      <c r="I33">
+        <v>-0</v>
+      </c>
+      <c r="J33">
+        <v>-0</v>
+      </c>
+      <c r="K33">
+        <v>0.057</v>
+      </c>
+      <c r="L33">
+        <v>-3.166666666666667</v>
+      </c>
+      <c r="M33">
+        <v>-0</v>
+      </c>
+      <c r="N33">
+        <v>-0</v>
+      </c>
+      <c r="O33">
+        <v>-0</v>
+      </c>
+      <c r="P33">
+        <v>-0</v>
+      </c>
+      <c r="Q33">
+        <v>-0</v>
+      </c>
+      <c r="R33">
+        <v>-0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>1.12</v>
+      </c>
+      <c r="V33">
+        <v>0.1108910891089109</v>
+      </c>
+      <c r="W33">
+        <v>0.008469539375928677</v>
+      </c>
+      <c r="X33">
+        <v>0.03937937480804778</v>
+      </c>
+      <c r="Y33">
+        <v>-0.0309098354321191</v>
+      </c>
+      <c r="Z33">
+        <v>-0.002868068833652007</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0.03849398997660636</v>
+      </c>
+      <c r="AC33">
+        <v>-0.03849398997660636</v>
+      </c>
+      <c r="AD33">
+        <v>0.703</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0.703</v>
+      </c>
+      <c r="AG33">
+        <v>-0.4170000000000001</v>
+      </c>
+      <c r="AH33">
+        <v>0.06507451633805425</v>
+      </c>
+      <c r="AI33">
+        <v>0.09138177564019237</v>
+      </c>
+      <c r="AJ33">
+        <v>-0.04306516575441497</v>
+      </c>
+      <c r="AK33">
+        <v>-0.0634413509812871</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>-0.118</v>
+      </c>
+      <c r="AQ33">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Q Capital Partners Co., Ltd. (KOSDAQ:A016600)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>0.192</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>2.71</v>
+      </c>
+      <c r="L34">
+        <v>1.375634517766497</v>
+      </c>
+      <c r="M34">
+        <v>-0</v>
+      </c>
+      <c r="N34">
+        <v>-0</v>
+      </c>
+      <c r="O34">
+        <v>-0</v>
+      </c>
+      <c r="P34">
+        <v>-0</v>
+      </c>
+      <c r="Q34">
+        <v>-0</v>
+      </c>
+      <c r="R34">
+        <v>-0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0.193</v>
+      </c>
+      <c r="V34">
+        <v>0.002333736396614268</v>
+      </c>
+      <c r="W34">
+        <v>0.02994475138121547</v>
+      </c>
+      <c r="X34">
+        <v>0.04073883726598408</v>
+      </c>
+      <c r="Y34">
+        <v>-0.01079408588476861</v>
+      </c>
+      <c r="Z34">
+        <v>0.01910877451646071</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0.03861395072451294</v>
+      </c>
+      <c r="AC34">
+        <v>-0.03861395072451294</v>
+      </c>
+      <c r="AD34">
+        <v>11</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>11</v>
+      </c>
+      <c r="AG34">
+        <v>10.807</v>
+      </c>
+      <c r="AH34">
+        <v>0.1173959445037353</v>
+      </c>
+      <c r="AI34">
+        <v>0.09068425391591096</v>
+      </c>
+      <c r="AJ34">
+        <v>0.1155742350840044</v>
+      </c>
+      <c r="AK34">
+        <v>0.08923513917444904</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>-0.001</v>
+      </c>
+      <c r="AQ34">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Yuanta 4 SPECIAL PURPOSE ACQUISITION CO., LTD. (KOSDAQ:A313750)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="G35">
+        <v>-0</v>
+      </c>
+      <c r="H35">
+        <v>-0</v>
+      </c>
+      <c r="I35">
+        <v>-0</v>
+      </c>
+      <c r="J35">
+        <v>-0</v>
+      </c>
+      <c r="K35">
+        <v>0.051</v>
+      </c>
+      <c r="L35">
+        <v>-1.59375</v>
+      </c>
+      <c r="M35">
+        <v>-0</v>
+      </c>
+      <c r="N35">
+        <v>-0</v>
+      </c>
+      <c r="O35">
+        <v>-0</v>
+      </c>
+      <c r="P35">
+        <v>-0</v>
+      </c>
+      <c r="Q35">
+        <v>-0</v>
+      </c>
+      <c r="R35">
+        <v>-0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>1.32</v>
+      </c>
+      <c r="V35">
+        <v>0.1491525423728814</v>
+      </c>
+      <c r="W35">
+        <v>0.007024793388429752</v>
+      </c>
+      <c r="X35">
+        <v>0.04022730765987608</v>
+      </c>
+      <c r="Y35">
+        <v>-0.03320251427144633</v>
+      </c>
+      <c r="Z35">
+        <v>-0.004673579669928436</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0.0388049139631516</v>
+      </c>
+      <c r="AC35">
+        <v>-0.0388049139631516</v>
+      </c>
+      <c r="AD35">
+        <v>0.966</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0.966</v>
+      </c>
+      <c r="AG35">
+        <v>-0.3540000000000001</v>
+      </c>
+      <c r="AH35">
+        <v>0.09841075794621028</v>
+      </c>
+      <c r="AI35">
+        <v>0.1137005649717514</v>
+      </c>
+      <c r="AJ35">
+        <v>-0.04166666666666669</v>
+      </c>
+      <c r="AK35">
+        <v>-0.04933110367892977</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>-0.128</v>
+      </c>
+      <c r="AQ35">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Eugene Special Purpose Acquisition 4 Co., Ltd (KOSDAQ:A321260)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="G36">
+        <v>-0</v>
+      </c>
+      <c r="H36">
+        <v>-0</v>
+      </c>
+      <c r="I36">
+        <v>-0</v>
+      </c>
+      <c r="J36">
+        <v>-0</v>
+      </c>
+      <c r="K36">
+        <v>0.029</v>
+      </c>
+      <c r="L36">
+        <v>-0.7073170731707317</v>
+      </c>
+      <c r="M36">
+        <v>-0</v>
+      </c>
+      <c r="N36">
+        <v>-0</v>
+      </c>
+      <c r="O36">
+        <v>-0</v>
+      </c>
+      <c r="P36">
+        <v>-0</v>
+      </c>
+      <c r="Q36">
+        <v>-0</v>
+      </c>
+      <c r="R36">
+        <v>-0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0.004</v>
+      </c>
+      <c r="V36">
+        <v>0.0006042296072507553</v>
+      </c>
+      <c r="W36">
+        <v>0.005141843971631206</v>
+      </c>
+      <c r="X36">
+        <v>0.0409638240869853</v>
+      </c>
+      <c r="Y36">
+        <v>-0.0358219801153541</v>
+      </c>
+      <c r="Z36">
+        <v>-0.006281599509728819</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0.03905752964999099</v>
+      </c>
+      <c r="AC36">
+        <v>-0.03905752964999099</v>
+      </c>
+      <c r="AD36">
+        <v>0.95</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0.95</v>
+      </c>
+      <c r="AG36">
+        <v>0.946</v>
+      </c>
+      <c r="AH36">
+        <v>0.1254953764861294</v>
+      </c>
+      <c r="AI36">
+        <v>0.1399116347569956</v>
+      </c>
+      <c r="AJ36">
+        <v>0.1250330425588158</v>
+      </c>
+      <c r="AK36">
+        <v>0.139404656646036</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>-0.098</v>
+      </c>
+      <c r="AQ36">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Leaders Technology Investment Co., Ltd (KOSDAQ:A019570)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="D37">
+        <v>0.278</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>-3.81</v>
+      </c>
+      <c r="L37">
+        <v>-0.4508875739644971</v>
+      </c>
+      <c r="M37">
+        <v>-0</v>
+      </c>
+      <c r="N37">
+        <v>-0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>-0</v>
+      </c>
+      <c r="Q37">
+        <v>-0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0.794</v>
+      </c>
+      <c r="V37">
+        <v>0.01784269662921349</v>
+      </c>
+      <c r="W37">
+        <v>-0.2458064516129032</v>
+      </c>
+      <c r="X37">
+        <v>0.05084757766019875</v>
+      </c>
+      <c r="Y37">
+        <v>-0.296654029273102</v>
+      </c>
+      <c r="Z37">
+        <v>0.3457446808510638</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0.04021985095148679</v>
+      </c>
+      <c r="AC37">
+        <v>-0.04021985095148679</v>
+      </c>
+      <c r="AD37">
         <v>26.9</v>
       </c>
-      <c r="L31">
-        <v>0.09806780896828289</v>
-      </c>
-      <c r="M31">
-        <v>-0</v>
-      </c>
-      <c r="N31">
-        <v>-0</v>
-      </c>
-      <c r="O31">
-        <v>-0</v>
-      </c>
-      <c r="P31">
-        <v>-0</v>
-      </c>
-      <c r="Q31">
-        <v>-0</v>
-      </c>
-      <c r="R31">
-        <v>-0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>230.3</v>
-      </c>
-      <c r="V31">
-        <v>1.883074407195421</v>
-      </c>
-      <c r="W31">
-        <v>0.06522793404461688</v>
-      </c>
-      <c r="X31">
-        <v>0.1996038385826829</v>
-      </c>
-      <c r="Y31">
-        <v>-0.1343759045380661</v>
-      </c>
-      <c r="Z31">
-        <v>0.2516744655472979</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0.05196154904949252</v>
-      </c>
-      <c r="AC31">
-        <v>-0.05196154904949252</v>
-      </c>
-      <c r="AD31">
-        <v>778.3</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>778.3</v>
-      </c>
-      <c r="AG31">
-        <v>548</v>
-      </c>
-      <c r="AH31">
-        <v>0.8642016433488786</v>
-      </c>
-      <c r="AI31">
-        <v>0.627863827040981</v>
-      </c>
-      <c r="AJ31">
-        <v>0.8175443831120395</v>
-      </c>
-      <c r="AK31">
-        <v>0.5429505597939166</v>
-      </c>
-      <c r="AL31">
-        <v>0</v>
-      </c>
-      <c r="AM31">
-        <v>0</v>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>26.9</v>
+      </c>
+      <c r="AG37">
+        <v>26.106</v>
+      </c>
+      <c r="AH37">
+        <v>0.376750700280112</v>
+      </c>
+      <c r="AI37">
+        <v>0.5512295081967213</v>
+      </c>
+      <c r="AJ37">
+        <v>0.3697419482763504</v>
+      </c>
+      <c r="AK37">
+        <v>0.5438070241219847</v>
+      </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37">
+        <v>-0.005</v>
+      </c>
+      <c r="AQ37">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
